--- a/TristanKEREVAL-patch-1/ig/StructureDefinition-administration-report.xlsx
+++ b/TristanKEREVAL-patch-1/ig/StructureDefinition-administration-report.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AdministrationReport</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/administration-report</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:47:39+00:00</t>
+    <t>2024-03-27T10:49:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -703,7 +703,7 @@
     <t>MedicationAdministration.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Prescription)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription)
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
     <t>MedicationAdministration.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyMedication)
+    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-medication)
 </t>
   </si>
   <si>
@@ -1110,7 +1110,7 @@
     <t>MedicationAdministration.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/PrescriptionItem)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription-item)
 </t>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.51171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
